--- a/Docs/TeamXXReport.xlsx
+++ b/Docs/TeamXXReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrr/Documents/Stevens/555/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICKY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="11000" windowWidth="33240" windowHeight="26120" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,8 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,19 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="213">
-  <si>
-    <t>Find marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="198">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,58 +138,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gh(at)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh(hm)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mills</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harlan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hopper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grace</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hmills@stevens.edu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>grace.hopper@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,40 +154,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aturing@stevens.edu</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
     <t>Keep doing:</t>
   </si>
   <si>
@@ -260,15 +167,9 @@
     <t>GitHub Username</t>
   </si>
   <si>
-    <t>gracehopper</t>
-  </si>
-  <si>
     <t>harlanmills</t>
   </si>
   <si>
-    <t>enigmacracker</t>
-  </si>
-  <si>
     <t>GitHub Repository:</t>
   </si>
   <si>
@@ -281,9 +182,6 @@
     <t>Bring silverware for everyone</t>
   </si>
   <si>
-    <t>ssw555tmxx2015Fall</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -647,27 +545,6 @@
     <t>US42</t>
   </si>
   <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>Dates before current date</t>
   </si>
   <si>
@@ -726,12 +603,66 @@
   </si>
   <si>
     <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>Ketaki</t>
+  </si>
+  <si>
+    <t>Thatte</t>
+  </si>
+  <si>
+    <t>kthatte@stevens.edu</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Anurag</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Abhilash</t>
+  </si>
+  <si>
+    <t>Ugaonkar</t>
+  </si>
+  <si>
+    <t>ketaki-thatte</t>
+  </si>
+  <si>
+    <t>CS55-FamilyTreeProject</t>
+  </si>
+  <si>
+    <t>Not Startted</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>vrana3@stevens.edu</t>
+  </si>
+  <si>
+    <t>jackburner007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -790,7 +721,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -856,8 +787,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -884,8 +816,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -950,6 +883,7 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -958,12 +892,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -989,22 +926,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065.0</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078.0</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092.0</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106.0</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120.0</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,24 +953,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB87-440C-B1E4-F630CA775F53}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1045,28 +987,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-469478512"/>
-        <c:axId val="-469476192"/>
+        <c:axId val="1173761008"/>
+        <c:axId val="1236568656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-469478512"/>
+        <c:axId val="1173761008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-469476192"/>
+        <c:crossAx val="1236568656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-469476192"/>
+        <c:axId val="1236568656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-469478512"/>
+        <c:crossAx val="1173761008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1088,14 +1030,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1124,10 +1066,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442.0</c:v>
+                  <c:v>40442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455.0</c:v>
+                  <c:v>40455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,15 +1081,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD88-49A0-8769-254FCD18C01E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1159,11 +1106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-467596544"/>
-        <c:axId val="-467594224"/>
+        <c:axId val="1236557232"/>
+        <c:axId val="1236566480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-467596544"/>
+        <c:axId val="1236557232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,14 +1120,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-467594224"/>
+        <c:crossAx val="1236566480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-467594224"/>
+        <c:axId val="1236566480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-467596544"/>
+        <c:crossAx val="1236557232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1202,7 +1149,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1225,7 +1172,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1257,7 +1210,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1326,7 +1285,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1385,7 +1350,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1448,7 +1419,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="6" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1512,7 +1489,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="7" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1575,7 +1558,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1639,7 +1628,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1980,91 +1975,103 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.47265625" customWidth="1"/>
+    <col min="4" max="4" width="20.47265625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D9" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2072,6 +2079,10 @@
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -2079,84 +2090,498 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.234375" customWidth="1"/>
+    <col min="2" max="2" width="18.76171875" customWidth="1"/>
+    <col min="3" max="3" width="30.47265625" customWidth="1"/>
+    <col min="4" max="4" width="13.234375" customWidth="1"/>
+    <col min="5" max="5" width="17.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2170,76 +2595,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="7"/>
+    <col min="2" max="2" width="9.47265625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.37890625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.47265625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2253,9 +2678,9 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2278,9 +2703,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2303,9 +2728,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2328,9 +2753,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2364,41 +2789,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="2"/>
+    <col min="2" max="2" width="16.6171875" customWidth="1"/>
+    <col min="3" max="3" width="12.47265625" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.47265625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2409,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2441,203 +2866,212 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.76171875" customWidth="1"/>
+    <col min="2" max="2" width="24.47265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.234375" customWidth="1"/>
+    <col min="4" max="4" width="14.47265625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.37890625" customWidth="1"/>
+    <col min="7" max="7" width="14.6171875" customWidth="1"/>
+    <col min="8" max="8" width="17.76171875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-      <c r="G2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
-      <c r="H2">
-        <v>90</v>
-      </c>
-      <c r="I2" s="6">
-        <v>40444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2655,35 +3089,35 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2701,35 +3135,35 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2746,35 +3180,35 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2787,487 +3221,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.47265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>144</v>
       </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="12" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/TeamXXReport.xlsx
+++ b/Docs/TeamXXReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICKY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="200">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hmills@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,9 +163,6 @@
     <t>GitHub Username</t>
   </si>
   <si>
-    <t>harlanmills</t>
-  </si>
-  <si>
     <t>GitHub Repository:</t>
   </si>
   <si>
@@ -657,6 +650,18 @@
   </si>
   <si>
     <t>jackburner007</t>
+  </si>
+  <si>
+    <t>augaonkar</t>
+  </si>
+  <si>
+    <t>augaonka@stevens.edu</t>
+  </si>
+  <si>
+    <t>apatil11@stevens.edu</t>
+  </si>
+  <si>
+    <t>anuragpatil94</t>
   </si>
 </sst>
 </file>
@@ -1974,20 +1979,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.47265625" customWidth="1"/>
-    <col min="4" max="4" width="20.47265625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2001,77 +2006,83 @@
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E9" t="s">
         <v>190</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2082,6 +2093,8 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2096,492 +2109,492 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.234375" customWidth="1"/>
-    <col min="2" max="2" width="18.76171875" customWidth="1"/>
-    <col min="3" max="3" width="30.47265625" customWidth="1"/>
-    <col min="4" max="4" width="13.234375" customWidth="1"/>
-    <col min="5" max="5" width="17.6171875" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="E6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>121</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>74</v>
       </c>
-      <c r="E5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>122</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="E8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>123</v>
       </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>124</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="E8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>125</v>
       </c>
-      <c r="C9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>126</v>
       </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>127</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="E11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="E13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>128</v>
       </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>129</v>
       </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>130</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
         <v>85</v>
       </c>
-      <c r="E14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>132</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>86</v>
       </c>
-      <c r="E16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>133</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="E17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>134</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>88</v>
       </c>
-      <c r="E18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+      <c r="E20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>135</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="E19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+      <c r="E21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>136</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="E20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>137</v>
       </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>139</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>140</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>141</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>97</v>
       </c>
-      <c r="E25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
+      <c r="E27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>142</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="E26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>99</v>
       </c>
-      <c r="E27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+      <c r="E29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>144</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>145</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>101</v>
       </c>
-      <c r="E29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+      <c r="E31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>146</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>147</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>103</v>
       </c>
-      <c r="E31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+      <c r="E33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>148</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="E32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+      <c r="E34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>149</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="E33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="E36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
         <v>106</v>
       </c>
-      <c r="E34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
+      <c r="E37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>152</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>107</v>
       </c>
-      <c r="E36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>153</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>108</v>
       </c>
-      <c r="E37" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>154</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>109</v>
       </c>
-      <c r="E38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
+      <c r="E40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>155</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>110</v>
       </c>
-      <c r="E39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>156</v>
       </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>157</v>
       </c>
-      <c r="C41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
-        <v>159</v>
-      </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2599,49 +2612,49 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="7"/>
-    <col min="2" max="2" width="9.47265625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.37890625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.47265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2662,9 +2675,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2678,9 +2691,9 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2703,9 +2716,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2728,9 +2741,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2753,9 +2766,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2793,17 +2806,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2"/>
-    <col min="2" max="2" width="16.6171875" customWidth="1"/>
-    <col min="3" max="3" width="12.47265625" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.47265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +2836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2834,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2872,20 +2885,20 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.76171875" customWidth="1"/>
-    <col min="2" max="2" width="24.47265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.234375" customWidth="1"/>
-    <col min="4" max="4" width="14.47265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.37890625" customWidth="1"/>
-    <col min="7" max="7" width="14.6171875" customWidth="1"/>
-    <col min="8" max="8" width="17.76171875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="6"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2914,164 +2927,164 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>121</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>138</v>
       </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>140</v>
-      </c>
       <c r="B10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>147</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>103</v>
       </c>
-      <c r="C13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3089,9 +3102,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3135,9 +3148,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3180,9 +3193,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3221,487 +3234,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.47265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>121</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>122</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="12" t="s">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="12" t="s">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="12" t="s">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="12" t="s">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="12" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>146</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>147</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>148</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>149</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C36" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>152</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>153</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>154</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>155</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C41" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="12" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/TeamXXReport.xlsx
+++ b/Docs/TeamXXReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="4500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="200">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1983,13 +1983,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2109,13 +2109,13 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2608,18 +2608,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2802,18 +2802,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2881,21 +2881,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="6"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2980,6 +2980,9 @@
       <c r="B7" t="s">
         <v>75</v>
       </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3019,6 +3022,9 @@
       <c r="B11" t="s">
         <v>108</v>
       </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3027,6 +3033,9 @@
       <c r="B12" t="s">
         <v>109</v>
       </c>
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3072,7 +3081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -3098,13 +3107,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3148,9 +3157,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3193,9 +3202,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3238,10 +3247,10 @@
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3255,7 +3264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -3266,7 +3275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3299,7 +3308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -3310,7 +3319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -3321,7 +3330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -3332,7 +3341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -3343,7 +3352,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -3354,7 +3363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -3365,7 +3374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -3376,7 +3385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -3398,7 +3407,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -3409,7 +3418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -3420,7 +3429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -3431,7 +3440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -3442,7 +3451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -3464,7 +3473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -3497,7 +3506,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -3508,7 +3517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -3519,7 +3528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -3541,7 +3550,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -3552,7 +3561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -3574,7 +3583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -3585,7 +3594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3596,7 +3605,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -3607,7 +3616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -3618,7 +3627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -3640,7 +3649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -3651,7 +3660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -3684,7 +3693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -3706,7 +3715,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>157</v>
       </c>

--- a/Docs/TeamXXReport.xlsx
+++ b/Docs/TeamXXReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS555\CS55-FamilyTreeProject\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="4500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="4500" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,11 @@
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="220">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -662,6 +657,66 @@
   </si>
   <si>
     <t>anuragpatil94</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Sprint1</t>
+  </si>
+  <si>
+    <t>20 lines</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t>10 lines</t>
+  </si>
+  <si>
+    <t>8 lines</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t>12 lines</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>BACKLOG</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>35 lines</t>
+  </si>
+  <si>
+    <t>23 lines</t>
+  </si>
+  <si>
+    <t>26 lines</t>
+  </si>
+  <si>
+    <t>55 lines</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>22 lines</t>
+  </si>
+  <si>
+    <t>41 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 lines </t>
   </si>
 </sst>
 </file>
@@ -703,7 +758,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,6 +768,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +861,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -822,6 +889,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1979,17 +2049,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2105,17 +2175,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2147,69 +2217,93 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="A3" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E3" t="s">
-        <v>191</v>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="A4" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E4" t="s">
-        <v>191</v>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="A5" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
-        <v>191</v>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="A6" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
-        <v>191</v>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="A7" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E7" t="s">
-        <v>191</v>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="A8" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
-        <v>191</v>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2300,7 +2394,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>131</v>
       </c>
@@ -2311,7 +2405,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>132</v>
       </c>
@@ -2322,7 +2416,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>133</v>
       </c>
@@ -2333,7 +2427,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>134</v>
       </c>
@@ -2344,7 +2438,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>135</v>
       </c>
@@ -2355,7 +2449,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>136</v>
       </c>
@@ -2366,29 +2460,37 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>139</v>
       </c>
@@ -2399,7 +2501,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>140</v>
       </c>
@@ -2410,7 +2512,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>141</v>
       </c>
@@ -2421,7 +2523,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>142</v>
       </c>
@@ -2432,7 +2534,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>143</v>
       </c>
@@ -2443,7 +2545,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>144</v>
       </c>
@@ -2454,40 +2556,52 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>148</v>
       </c>
@@ -2498,7 +2612,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>149</v>
       </c>
@@ -2509,7 +2623,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>150</v>
       </c>
@@ -2520,7 +2634,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>151</v>
       </c>
@@ -2531,7 +2645,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>152</v>
       </c>
@@ -2542,29 +2656,37 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="18"/>
+      <c r="E40" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>155</v>
       </c>
@@ -2575,7 +2697,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>156</v>
       </c>
@@ -2586,7 +2708,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>157</v>
       </c>
@@ -2612,14 +2734,14 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2806,14 +2928,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2879,23 +3001,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2937,6 +3059,24 @@
       <c r="C2" t="s">
         <v>178</v>
       </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2946,7 +3086,22 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2956,6 +3111,27 @@
       <c r="B4" t="s">
         <v>72</v>
       </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2964,6 +3140,27 @@
       <c r="B5" t="s">
         <v>73</v>
       </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2972,6 +3169,24 @@
       <c r="B6" t="s">
         <v>74</v>
       </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2981,118 +3196,247 @@
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>182</v>
       </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>178</v>
       </c>
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>30</v>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="21" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3111,9 +3455,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3157,9 +3501,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3202,9 +3546,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3243,14 +3587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3264,7 +3608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -3275,7 +3619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -3286,7 +3630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3297,7 +3641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3308,7 +3652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -3319,7 +3663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -3330,7 +3674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -3341,7 +3685,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -3352,7 +3696,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -3363,7 +3707,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -3374,7 +3718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -3385,7 +3729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -3396,7 +3740,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -3407,7 +3751,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -3418,7 +3762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -3429,7 +3773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -3440,7 +3784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -3451,7 +3795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -3462,7 +3806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -3473,7 +3817,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -3484,7 +3828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -3495,7 +3839,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -3506,7 +3850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -3517,7 +3861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -3528,7 +3872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -3539,7 +3883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -3550,7 +3894,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -3561,7 +3905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -3572,7 +3916,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -3583,7 +3927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -3594,7 +3938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3605,7 +3949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -3616,7 +3960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -3627,7 +3971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -3638,7 +3982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -3649,7 +3993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -3660,7 +4004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -3671,7 +4015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -3682,7 +4026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -3693,7 +4037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -3704,7 +4048,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -3715,7 +4059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>157</v>
       </c>

--- a/Docs/TeamXXReport.xlsx
+++ b/Docs/TeamXXReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="4500" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="4500" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="209">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,15 +161,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -665,58 +656,34 @@
     <t>Sprint1</t>
   </si>
   <si>
-    <t>20 lines</t>
-  </si>
-  <si>
-    <t>2 hrs</t>
-  </si>
-  <si>
-    <t>10 lines</t>
-  </si>
-  <si>
-    <t>8 lines</t>
-  </si>
-  <si>
-    <t>1 hrs</t>
-  </si>
-  <si>
-    <t>12 lines</t>
-  </si>
-  <si>
-    <t>3 hrs</t>
-  </si>
-  <si>
     <t>BACKLOG</t>
   </si>
   <si>
     <t>Backlog</t>
   </si>
   <si>
-    <t>35 lines</t>
-  </si>
-  <si>
-    <t>23 lines</t>
-  </si>
-  <si>
-    <t>26 lines</t>
-  </si>
-  <si>
-    <t>55 lines</t>
-  </si>
-  <si>
-    <t>1 hr</t>
-  </si>
-  <si>
-    <t>30 mins</t>
-  </si>
-  <si>
-    <t>22 lines</t>
-  </si>
-  <si>
-    <t>41 lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 lines </t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Continue Writing test cases</t>
+  </si>
+  <si>
+    <t>Continue discussing ideas befoore writing the code with project partners.</t>
+  </si>
+  <si>
+    <t>Write modular code</t>
+  </si>
+  <si>
+    <t>Follow the dates of team meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Project submission details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read more about MongoDb </t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
@@ -727,7 +694,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -757,8 +724,19 @@
       <sz val="12"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,13 +761,53 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -861,7 +879,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -892,6 +910,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1141,10 +1171,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442</c:v>
+                  <c:v>40221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455</c:v>
+                  <c:v>40235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,7 +1186,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
@@ -2081,70 +2111,70 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>181</v>
-      </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
         <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2152,7 +2182,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2207,516 +2237,516 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2730,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2746,37 +2776,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2799,7 +2829,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2815,7 +2845,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2840,7 +2870,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2865,7 +2895,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2890,7 +2920,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2924,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2960,10 +2990,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>40442</v>
+        <v>40221</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2971,46 +3001,46 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>40455</v>
+        <v>40235</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3">
         <f>B2-B3</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
+        <v>376</v>
+      </c>
+      <c r="E3" s="20">
+        <v>21.5</v>
       </c>
       <c r="F3" s="9">
-        <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <f>(D3-D2)/E3</f>
+        <v>17.488372093023255</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" customWidth="1"/>
     <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -3051,368 +3081,391 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+      <c r="E2" s="19">
+        <v>20</v>
+      </c>
+      <c r="F2" s="19">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+      <c r="E3" s="19">
+        <v>10</v>
+      </c>
+      <c r="F3" s="19">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" t="s">
-        <v>206</v>
+        <v>197</v>
+      </c>
+      <c r="E4" s="19">
+        <v>8</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="G5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" t="s">
-        <v>208</v>
+        <v>197</v>
+      </c>
+      <c r="E5" s="19">
+        <v>12</v>
+      </c>
+      <c r="F5" s="19">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+      <c r="E6" s="19">
+        <v>8</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" t="s">
-        <v>208</v>
+        <v>197</v>
+      </c>
+      <c r="E7" s="19">
+        <v>12</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" t="s">
-        <v>206</v>
+        <v>197</v>
+      </c>
+      <c r="E8" s="19">
+        <v>8</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H9" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+      <c r="E9" s="19">
+        <v>12</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2</v>
+      </c>
+      <c r="G9" s="19">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" t="s">
-        <v>216</v>
+        <v>197</v>
+      </c>
+      <c r="E10" s="19">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
       </c>
       <c r="I10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+      <c r="E11" s="19">
+        <v>12</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2</v>
+      </c>
+      <c r="G11" s="19">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+      <c r="E12" s="19">
+        <v>8</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2</v>
+      </c>
+      <c r="G12" s="19">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" t="s">
-        <v>215</v>
+        <v>197</v>
+      </c>
+      <c r="E13" s="19">
+        <v>12</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>26</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>206</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="19">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>26</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
+      <c r="G15" s="22">
+        <f>SUM(G2:G14)</f>
+        <v>376</v>
+      </c>
+      <c r="H15" s="22">
+        <f>SUM(H2:H13)</f>
+        <v>21.5</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3421,23 +3474,38 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>34</v>
+      <c r="B17" s="23" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="B18" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>35</v>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3449,13 +3517,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -3484,6 +3563,174 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3587,8 +3834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3599,475 +3846,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
